--- a/3.Understand/EE6203-热门考点分析.xlsx
+++ b/3.Understand/EE6203-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="212">
   <si>
     <t>目录</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.2 Z</t>
     </r>
     <r>
@@ -236,6 +242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.3.1Jury</t>
     </r>
     <r>
@@ -444,6 +456,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2.5 </t>
     </r>
     <r>
@@ -640,7 +658,18 @@
     <t>12 阿克曼的公式 ：求K 法2</t>
   </si>
   <si>
-    <t>12.1 阿克曼的公式</t>
+    <r>
+      <t xml:space="preserve">12.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿克曼的公式</t>
+    </r>
   </si>
   <si>
     <t>Q4：求K</t>
@@ -1020,7 +1049,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,12 +1077,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,7 +1432,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,16 +1456,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1451,89 +1474,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1573,6 +1596,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1582,16 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1914,9 +1934,9 @@
   <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2056,7 +2076,7 @@
       <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2106,27 +2126,27 @@
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2146,10 +2166,10 @@
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2189,10 +2209,10 @@
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2242,34 +2262,34 @@
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2406,10 +2426,10 @@
       </c>
     </row>
     <row r="63" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2479,10 +2499,10 @@
       </c>
     </row>
     <row r="74" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="16" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2508,29 +2528,29 @@
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2540,10 +2560,10 @@
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2614,19 +2634,19 @@
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2690,10 +2710,10 @@
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2718,19 +2738,22 @@
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="B111" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="C111" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="D111" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="E111" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2785,13 +2808,13 @@
       </c>
     </row>
     <row r="122" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D122" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="20" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2811,10 +2834,10 @@
       </c>
     </row>
     <row r="126" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F126" s="16" t="s">
         <v>181</v>
       </c>
     </row>

--- a/3.Understand/EE6203-热门考点分析.xlsx
+++ b/3.Understand/EE6203-热门考点分析.xlsx
@@ -659,6 +659,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">12.1 </t>
     </r>
     <r>
@@ -706,12 +712,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.L0=α0(A)[W0]</t>
+      <t>16.1.L0=α0(A)[W0]</t>
     </r>
     <r>
       <rPr>
@@ -1934,9 +1935,9 @@
   <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/3.Understand/EE6203-热门考点分析.xlsx
+++ b/3.Understand/EE6203-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="214">
   <si>
     <t>目录</t>
   </si>
@@ -712,6 +712,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>16.1.L0=α0(A)[W0]</t>
     </r>
     <r>
@@ -735,6 +740,32 @@
     <t>Q4：求Lo</t>
   </si>
   <si>
+    <r>
+      <t>16.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证无差拍错误响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Q4：验证</t>
+  </si>
+  <si>
     <t>17 降维的观察器</t>
   </si>
   <si>
@@ -850,7 +881,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +924,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1045,6 +1082,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -1427,137 +1470,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1573,6 +1616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1619,6 +1665,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1932,12 +1984,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1984,1014 +2036,1022 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="68" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="69" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="74" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="75" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="98" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="19" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="122" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="5" t="s">
+    <row r="123" s="5" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A123" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="124" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="G123" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A126" s="15" t="s">
+      <c r="A125" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F126" s="16" t="s">
+    </row>
+    <row r="126" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A126" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="127" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="6" t="s">
+    <row r="127" s="3" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A127" s="16" t="s">
         <v>182</v>
       </c>
+      <c r="F127" s="17" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="128" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="5" t="s">
+      <c r="A128" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="130" s="3" customFormat="1" ht="15.5" spans="1:1">
+    <row r="129" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A129" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="6" t="s">
-        <v>186</v>
+      <c r="A131" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="6" t="s">
-        <v>187</v>
+      <c r="A132" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A133" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="5" t="s">
+      <c r="A133" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" s="3" customFormat="1" ht="15.5" spans="1:1">
+    <row r="134" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A134" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A136" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="5" t="s">
+      <c r="A136" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A138" s="7" t="s">
+    <row r="137" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A137" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8" t="s">
+    </row>
+    <row r="138" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A138" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" s="3" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A139" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="5" t="s">
+      <c r="D139" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="141" s="3" customFormat="1" ht="15.5" spans="1:1">
+    <row r="140" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A140" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A143" s="5" t="s">
+      <c r="A142" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" s="3" customFormat="1" ht="15.5" spans="1:1">
+    <row r="143" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A143" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A145" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" s="3" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A146" s="11" t="s">
+      <c r="A145" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C146" s="12" t="s">
+    </row>
+    <row r="146" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A146" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" s="3" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A147" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A147" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="E147" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A149" s="6" t="s">
-        <v>206</v>
+      <c r="A149" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="150" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A150" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="151" s="3" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A150" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B151" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D151" s="8" t="s">
+    </row>
+    <row r="152" s="3" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A152" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A152" s="6" t="s">
+      <c r="B152" s="9" t="s">
         <v>211</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A153" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6203-热门考点分析.xlsx
+++ b/3.Understand/EE6203-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="221">
   <si>
     <t>目录</t>
   </si>
@@ -196,6 +196,9 @@
     <t>Q1 Q4</t>
   </si>
   <si>
+    <t>Q1：带参数</t>
+  </si>
+  <si>
     <t>章节3：数字控制系统的建模</t>
   </si>
   <si>
@@ -211,7 +214,18 @@
     <t>3.2.2. DAC Model</t>
   </si>
   <si>
-    <t>3.3 脉冲传递函数</t>
+    <r>
+      <t xml:space="preserve">3.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脉冲传递函数</t>
+    </r>
   </si>
   <si>
     <t>Q2</t>
@@ -396,6 +410,9 @@
   </si>
   <si>
     <t>6.3直接编程</t>
+  </si>
+  <si>
+    <t>Q5：控制器</t>
   </si>
   <si>
     <t>6.4标准编程</t>
@@ -508,6 +525,9 @@
     <t>Q4：极点</t>
   </si>
   <si>
+    <t>Q3：极点</t>
+  </si>
+  <si>
     <t>3.2 离散时间系统的零点</t>
   </si>
   <si>
@@ -523,7 +543,18 @@
     <t>4.1状态转移方程</t>
   </si>
   <si>
-    <t>4.2 递推解法</t>
+    <r>
+      <t xml:space="preserve">4.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>递推解法</t>
+    </r>
   </si>
   <si>
     <t>Q3</t>
@@ -538,6 +569,9 @@
     <t>Q3：uy推x</t>
   </si>
   <si>
+    <t>Q3：x0推xt</t>
+  </si>
+  <si>
     <t>4.3一般解法</t>
   </si>
   <si>
@@ -589,7 +623,18 @@
     <t>1.x(N)：N时候的状态</t>
   </si>
   <si>
-    <t>2.Wc 可控性矩阵</t>
+    <r>
+      <t xml:space="preserve">2.Wc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可控性矩阵</t>
+    </r>
   </si>
   <si>
     <t>Q3：|Wc|</t>
@@ -599,6 +644,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q3：|Wc| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2：|Wc|  </t>
   </si>
   <si>
     <t>3.可控对：定义和定理</t>
@@ -741,6 +789,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>16.2.</t>
     </r>
     <r>
@@ -763,7 +817,7 @@
     </r>
   </si>
   <si>
-    <t>Q4：验证</t>
+    <t>Q4：验证，推导</t>
   </si>
   <si>
     <t>17 降维的观察器</t>
@@ -866,6 +920,12 @@
   </si>
   <si>
     <t>Q4：u* x(k+1)等式</t>
+  </si>
+  <si>
+    <t>Q3：q，极点</t>
+  </si>
+  <si>
+    <t>Q3：u* x(k+1)</t>
   </si>
   <si>
     <t>23.5递归方法</t>
@@ -1093,7 +1153,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,13 +1192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1542,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,16 +1566,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1518,85 +1584,85 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1616,9 +1682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1649,28 +1712,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,9 +2053,9 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2001,6 +2067,7 @@
     <col min="5" max="5" width="19.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="21.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="15.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -2036,1022 +2103,1089 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="3" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A12" s="10" t="s">
+    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="H12" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>32</v>
+      <c r="A13" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>33</v>
+      <c r="A14" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
+      <c r="A15" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
+      <c r="A16" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="15" t="s">
+    </row>
+    <row r="18" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="E18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>42</v>
+      <c r="A20" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="7" t="s">
-        <v>43</v>
+      <c r="A21" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="23" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="B23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>48</v>
+      <c r="D24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>51</v>
+      <c r="A25" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>52</v>
+      <c r="A26" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>53</v>
+      <c r="A27" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A28" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>55</v>
       </c>
+      <c r="B28" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="7" t="s">
-        <v>56</v>
+      <c r="A29" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="7" t="s">
-        <v>57</v>
+      <c r="A30" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="7" t="s">
-        <v>58</v>
+      <c r="A31" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
+      <c r="A32" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="6" t="s">
-        <v>60</v>
+      <c r="A33" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="7" t="s">
-        <v>61</v>
+      <c r="A34" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>62</v>
+      <c r="A35" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>63</v>
+      <c r="A36" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>64</v>
+      <c r="A37" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A38" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="17" t="s">
+      <c r="A38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A39" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="17" t="s">
+      <c r="A39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A40" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="17" t="s">
+    <row r="40" s="3" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A40" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A41" s="16" t="s">
+      <c r="D40" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="I40" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A41" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="D41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="7" t="s">
-        <v>71</v>
+      <c r="A42" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>72</v>
+      <c r="A43" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="7" t="s">
-        <v>73</v>
+      <c r="A44" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="7" t="s">
-        <v>74</v>
+      <c r="A45" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="7" t="s">
-        <v>75</v>
+      <c r="A46" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A47" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="E47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="7" t="s">
-        <v>81</v>
+      <c r="A48" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="7" t="s">
-        <v>82</v>
+      <c r="A49" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="7" t="s">
-        <v>83</v>
+      <c r="A50" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="6" t="s">
-        <v>84</v>
+      <c r="A51" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="7" t="s">
-        <v>85</v>
+      <c r="A52" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="54" s="3" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A54" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="55" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A55" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>89</v>
+      <c r="A55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="7" t="s">
-        <v>90</v>
+      <c r="A56" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="7" t="s">
-        <v>91</v>
+      <c r="A57" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="7" t="s">
-        <v>92</v>
+      <c r="A58" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A59" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="A59" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="7" t="s">
-        <v>95</v>
+      <c r="A60" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="6" t="s">
-        <v>96</v>
+      <c r="A61" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="6" t="s">
-        <v>97</v>
+      <c r="A62" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A63" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>99</v>
+      <c r="A63" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="7" t="s">
-        <v>100</v>
+      <c r="A64" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="7" t="s">
-        <v>101</v>
+      <c r="A65" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="6" t="s">
-        <v>102</v>
+      <c r="A66" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="67" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="7" t="s">
-        <v>103</v>
+      <c r="A67" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="68" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="7" t="s">
-        <v>104</v>
+      <c r="A68" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="7" t="s">
-        <v>105</v>
+      <c r="A69" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A71" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>108</v>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A71" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="7" t="s">
-        <v>109</v>
+      <c r="A72" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A74" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F74" s="17" t="s">
+      <c r="A73" s="5" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="74" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="75" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="7" t="s">
-        <v>113</v>
+      <c r="A75" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>115</v>
+      <c r="A76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="6" t="s">
-        <v>116</v>
+      <c r="A77" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A79" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="15" t="s">
+      <c r="A78" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="15" t="s">
+    </row>
+    <row r="79" s="4" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A79" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="B79" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="C79" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A82" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A83" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A82" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A83" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>128</v>
+      <c r="E83" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="7" t="s">
-        <v>129</v>
+      <c r="A84" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="7" t="s">
-        <v>130</v>
+      <c r="A85" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="6" t="s">
-        <v>131</v>
+      <c r="A86" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="7" t="s">
-        <v>132</v>
+      <c r="A87" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="7" t="s">
-        <v>133</v>
+      <c r="A88" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="7" t="s">
-        <v>134</v>
+      <c r="A89" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="6" t="s">
-        <v>135</v>
+      <c r="A90" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="7" t="s">
-        <v>136</v>
+      <c r="A91" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="7" t="s">
-        <v>137</v>
+      <c r="A92" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="6" t="s">
-        <v>138</v>
+      <c r="A93" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A94" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A95" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="15" t="s">
+      <c r="A94" s="6" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="95" s="4" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A95" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A96" s="7" t="s">
-        <v>144</v>
+      <c r="A96" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A97" s="6" t="s">
-        <v>145</v>
+      <c r="A97" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="98" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A99" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>150</v>
+      <c r="A98" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" s="3" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A99" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="7" t="s">
-        <v>151</v>
+      <c r="A100" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="6" t="s">
-        <v>152</v>
+      <c r="A101" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="7" t="s">
-        <v>153</v>
+      <c r="A102" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="7" t="s">
-        <v>154</v>
+      <c r="A103" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="6" t="s">
-        <v>155</v>
+      <c r="A104" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="7" t="s">
-        <v>156</v>
+      <c r="A105" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A106" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>158</v>
+      <c r="A106" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="7" t="s">
-        <v>159</v>
+      <c r="A107" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="7" t="s">
-        <v>160</v>
+      <c r="A108" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="7" t="s">
-        <v>161</v>
+      <c r="A109" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A111" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>164</v>
+      <c r="A110" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A111" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="6" t="s">
-        <v>165</v>
+      <c r="A112" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="7" t="s">
-        <v>166</v>
+      <c r="A113" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="7" t="s">
-        <v>167</v>
+      <c r="A114" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="6" t="s">
-        <v>168</v>
+      <c r="A115" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="7" t="s">
-        <v>169</v>
+      <c r="A116" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="7" t="s">
-        <v>170</v>
+      <c r="A117" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="6" t="s">
-        <v>171</v>
+      <c r="A118" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="7" t="s">
-        <v>172</v>
+      <c r="A119" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="7" t="s">
-        <v>173</v>
+      <c r="A120" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="122" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A122" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" s="5" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A123" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>178</v>
+      <c r="A121" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A122" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H122" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A123" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="6" t="s">
-        <v>179</v>
+      <c r="A124" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="125" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="7" t="s">
-        <v>180</v>
+      <c r="A125" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="126" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="7" t="s">
-        <v>181</v>
+      <c r="A126" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="127" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A127" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>183</v>
+      <c r="A127" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="7" t="s">
-        <v>184</v>
+      <c r="A128" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="129" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="7" t="s">
-        <v>185</v>
+      <c r="A129" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="6" t="s">
-        <v>186</v>
+      <c r="A130" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="131" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="7" t="s">
-        <v>187</v>
+      <c r="A131" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="7" t="s">
-        <v>188</v>
+      <c r="A132" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A133" s="7" t="s">
-        <v>189</v>
+      <c r="A133" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="7" t="s">
-        <v>190</v>
+      <c r="A134" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="6" t="s">
-        <v>191</v>
+      <c r="A135" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A136" s="7" t="s">
-        <v>192</v>
+      <c r="A136" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="137" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="7" t="s">
-        <v>193</v>
+      <c r="A137" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A138" s="6" t="s">
-        <v>194</v>
+      <c r="A138" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A139" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>196</v>
+      <c r="A139" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="140" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="7" t="s">
-        <v>197</v>
+      <c r="A140" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="6" t="s">
-        <v>198</v>
+      <c r="A141" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="7" t="s">
-        <v>199</v>
+      <c r="A142" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="143" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A143" s="7" t="s">
-        <v>200</v>
+      <c r="A143" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A144" s="6" t="s">
-        <v>201</v>
+      <c r="A144" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A145" s="7" t="s">
-        <v>202</v>
+      <c r="A145" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A146" s="7" t="s">
-        <v>203</v>
+      <c r="A146" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="147" s="3" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A147" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>205</v>
+      <c r="A147" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A148" s="6" t="s">
-        <v>206</v>
+      <c r="A148" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A149" s="7" t="s">
-        <v>207</v>
+      <c r="A149" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="150" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A150" s="7" t="s">
-        <v>208</v>
+      <c r="A150" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A151" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" s="3" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A152" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>212</v>
+      <c r="A151" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" s="3" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A152" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="153" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A153" s="7" t="s">
-        <v>213</v>
+      <c r="A153" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
